--- a/new_empty.xlsx
+++ b/new_empty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel_machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel_machine\maszyna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD257ACA-5EAC-496B-98CF-72760AE96FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F3AFDE8-C5BA-47FC-999B-34A0A73F4B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="540" windowWidth="15375" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,17 @@
     <sheet name="Silver" sheetId="3" r:id="rId4"/>
     <sheet name="all table" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Black!$A$1:$AB$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Red!$A$1:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Silver!$A$1:$AB$8</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="676">
   <si>
     <t>ProductID</t>
   </si>
@@ -104,6 +109,9 @@
     <t>id_data</t>
   </si>
   <si>
+    <t>new_column_name</t>
+  </si>
+  <si>
     <t>LL Crankarm</t>
   </si>
   <si>
@@ -2042,10 +2050,13 @@
     <t>13DF62B2-8A7B-47D5-9084-F1172C4779E4</t>
   </si>
   <si>
+    <t>Podsumowanie</t>
+  </si>
+  <si>
     <t>Podsumowanie:</t>
   </si>
   <si>
-    <t xml:space="preserve">Liczba przypadków: 504 </t>
+    <t>Liczba przypadków: 504</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2067,6 +2078,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2104,12 +2129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,6 +2153,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88402</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="MyPlot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5E37F5-C1BF-8A84-B833-E9202F3BAB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4965202" cy="3776479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2412,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE92412E-37DA-4927-B175-867349A48942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E756AD-BF60-4907-B911-A168D3D3ED44}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2420,38 +2502,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -2459,18 +2541,19 @@
     <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,8 +2632,11 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -2558,10 +2644,10 @@
         <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2570,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>500</v>
@@ -2588,33 +2674,33 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="2">
         <v>39568</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2623,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>500</v>
@@ -2641,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" s="2">
         <v>39568</v>
       </c>
       <c r="Y3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -2664,10 +2750,10 @@
         <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -2676,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -2697,16 +2783,16 @@
         <v>39568</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -2714,10 +2800,10 @@
         <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -2726,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -2747,16 +2833,16 @@
         <v>39568</v>
       </c>
       <c r="Y5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>209</v>
       </c>
@@ -2764,10 +2850,10 @@
         <v>680</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2776,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -2791,13 +2877,13 @@
         <v>1431.5</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6">
         <v>2.2400000000000002</v>
@@ -2806,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T6">
         <v>14</v>
@@ -2824,29 +2910,36 @@
         <v>39568</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA6" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2925,8 +3018,11 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>210</v>
       </c>
@@ -2934,10 +3030,10 @@
         <v>706</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2946,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>500</v>
@@ -2961,13 +3057,13 @@
         <v>1431.5</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2">
         <v>2.2400000000000002</v>
@@ -2976,13 +3072,13 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T2">
         <v>14</v>
@@ -2994,29 +3090,35 @@
         <v>39568</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3095,8 +3197,11 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -3104,10 +3209,10 @@
         <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3116,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -3137,16 +3242,16 @@
         <v>39568</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -3154,10 +3259,10 @@
         <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3166,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -3187,16 +3292,16 @@
         <v>39568</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -3204,10 +3309,10 @@
         <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3216,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -3237,16 +3342,16 @@
         <v>39568</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -3254,10 +3359,10 @@
         <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -3266,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>800</v>
@@ -3287,16 +3392,16 @@
         <v>39568</v>
       </c>
       <c r="Y5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>32</v>
       </c>
@@ -3304,10 +3409,10 @@
         <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -3316,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>800</v>
@@ -3337,16 +3442,16 @@
         <v>39568</v>
       </c>
       <c r="Y6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>139</v>
       </c>
@@ -3354,10 +3459,10 @@
         <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -3366,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -3387,16 +3492,16 @@
         <v>39568</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>208</v>
       </c>
@@ -3404,10 +3509,10 @@
         <v>679</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -3416,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>500</v>
@@ -3437,29 +3542,35 @@
         <v>39568</v>
       </c>
       <c r="Y8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB8" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA212"/>
+  <dimension ref="A1:AB216"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3538,8 +3649,11 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3547,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3577,16 +3691,16 @@
         <v>39568</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3594,10 +3708,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3624,16 +3738,16 @@
         <v>39568</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z3" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3641,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3671,16 +3785,16 @@
         <v>39568</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z4" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3688,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -3718,16 +3832,16 @@
         <v>39568</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z5" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3735,10 +3849,10 @@
         <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3765,16 +3879,16 @@
         <v>39568</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z6" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3782,10 +3896,10 @@
         <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -3794,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -3812,22 +3926,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V7" s="2">
         <v>39568</v>
       </c>
       <c r="Y7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3835,10 +3949,10 @@
         <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -3847,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>500</v>
@@ -3865,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2">
         <v>39568</v>
       </c>
       <c r="Y8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3888,10 +4002,10 @@
         <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3900,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>500</v>
@@ -3921,16 +4035,16 @@
         <v>39568</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z9" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3938,10 +4052,10 @@
         <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3950,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>1000</v>
@@ -3971,16 +4085,16 @@
         <v>39568</v>
       </c>
       <c r="Y10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3988,10 +4102,10 @@
         <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -4000,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11">
         <v>1000</v>
@@ -4021,16 +4135,16 @@
         <v>39568</v>
       </c>
       <c r="Y11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z11" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4038,10 +4152,10 @@
         <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -4050,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>1000</v>
@@ -4071,16 +4185,16 @@
         <v>39568</v>
       </c>
       <c r="Y12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z12" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4088,10 +4202,10 @@
         <v>323</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -4118,16 +4232,16 @@
         <v>39568</v>
       </c>
       <c r="Y13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z13" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4135,10 +4249,10 @@
         <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4165,16 +4279,16 @@
         <v>39568</v>
       </c>
       <c r="Y14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z14" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4182,10 +4296,10 @@
         <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -4212,16 +4326,16 @@
         <v>39568</v>
       </c>
       <c r="Y15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z15" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4229,10 +4343,10 @@
         <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -4259,13 +4373,13 @@
         <v>39568</v>
       </c>
       <c r="Y16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z16" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -4276,10 +4390,10 @@
         <v>327</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -4306,13 +4420,13 @@
         <v>39568</v>
       </c>
       <c r="Y17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z17" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -4323,10 +4437,10 @@
         <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -4353,13 +4467,13 @@
         <v>39568</v>
       </c>
       <c r="Y18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z18" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -4370,10 +4484,10 @@
         <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -4400,13 +4514,13 @@
         <v>39568</v>
       </c>
       <c r="Y19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z19" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -4417,10 +4531,10 @@
         <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -4447,13 +4561,13 @@
         <v>39568</v>
       </c>
       <c r="Y20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z20" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -4464,10 +4578,10 @@
         <v>331</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -4494,13 +4608,13 @@
         <v>39568</v>
       </c>
       <c r="Y21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z21" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -4511,10 +4625,10 @@
         <v>332</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4523,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>500</v>
@@ -4544,13 +4658,13 @@
         <v>39568</v>
       </c>
       <c r="Y22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z22" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -4561,10 +4675,10 @@
         <v>341</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4591,13 +4705,13 @@
         <v>39568</v>
       </c>
       <c r="Y23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z23" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -4608,10 +4722,10 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4638,13 +4752,13 @@
         <v>39568</v>
       </c>
       <c r="Y24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z24" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -4655,10 +4769,10 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4685,13 +4799,13 @@
         <v>39568</v>
       </c>
       <c r="Y25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z25" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -4702,10 +4816,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4732,13 +4846,13 @@
         <v>39568</v>
       </c>
       <c r="Y26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z26" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -4749,10 +4863,10 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4779,13 +4893,13 @@
         <v>39568</v>
       </c>
       <c r="Y27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z27" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -4796,10 +4910,10 @@
         <v>346</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4826,13 +4940,13 @@
         <v>39568</v>
       </c>
       <c r="Y28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z28" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -4843,10 +4957,10 @@
         <v>347</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4873,13 +4987,13 @@
         <v>39568</v>
       </c>
       <c r="Y29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z29" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -4890,10 +5004,10 @@
         <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4920,13 +5034,13 @@
         <v>39568</v>
       </c>
       <c r="Y30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z30" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -4937,10 +5051,10 @@
         <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4967,13 +5081,13 @@
         <v>39568</v>
       </c>
       <c r="Y31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z31" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -4984,10 +5098,10 @@
         <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -5014,13 +5128,13 @@
         <v>39568</v>
       </c>
       <c r="Y32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z32" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -5031,10 +5145,10 @@
         <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -5043,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <v>800</v>
@@ -5064,13 +5178,13 @@
         <v>39568</v>
       </c>
       <c r="Y33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z33" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -5081,10 +5195,10 @@
         <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -5093,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>800</v>
@@ -5114,13 +5228,13 @@
         <v>39568</v>
       </c>
       <c r="Y34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z34" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -5131,10 +5245,10 @@
         <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -5161,13 +5275,13 @@
         <v>39568</v>
       </c>
       <c r="Y35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z35" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -5178,10 +5292,10 @@
         <v>356</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -5205,19 +5319,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V36" s="2">
         <v>39568</v>
       </c>
       <c r="Y36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z36" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -5228,10 +5342,10 @@
         <v>357</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -5255,19 +5369,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V37" s="2">
         <v>39568</v>
       </c>
       <c r="Y37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z37" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -5278,10 +5392,10 @@
         <v>358</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -5308,13 +5422,13 @@
         <v>39568</v>
       </c>
       <c r="Y38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z38" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -5325,10 +5439,10 @@
         <v>359</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -5355,13 +5469,13 @@
         <v>39568</v>
       </c>
       <c r="Y39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z39" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -5372,10 +5486,10 @@
         <v>360</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -5402,13 +5516,13 @@
         <v>39568</v>
       </c>
       <c r="Y40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z40" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -5419,10 +5533,10 @@
         <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -5449,13 +5563,13 @@
         <v>39568</v>
       </c>
       <c r="Y41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z41" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -5466,10 +5580,10 @@
         <v>362</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -5496,13 +5610,13 @@
         <v>39568</v>
       </c>
       <c r="Y42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z42" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -5513,10 +5627,10 @@
         <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -5543,13 +5657,13 @@
         <v>39568</v>
       </c>
       <c r="Y43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z43" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -5560,10 +5674,10 @@
         <v>364</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -5590,13 +5704,13 @@
         <v>39568</v>
       </c>
       <c r="Y44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z44" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -5607,10 +5721,10 @@
         <v>365</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -5637,13 +5751,13 @@
         <v>39568</v>
       </c>
       <c r="Y45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z45" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -5654,10 +5768,10 @@
         <v>366</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -5684,13 +5798,13 @@
         <v>39568</v>
       </c>
       <c r="Y46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z46" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -5701,10 +5815,10 @@
         <v>367</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -5731,13 +5845,13 @@
         <v>39568</v>
       </c>
       <c r="Y47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z47" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -5748,10 +5862,10 @@
         <v>368</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -5778,13 +5892,13 @@
         <v>39568</v>
       </c>
       <c r="Y48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z48" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -5795,10 +5909,10 @@
         <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -5825,13 +5939,13 @@
         <v>39568</v>
       </c>
       <c r="Y49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z49" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -5842,10 +5956,10 @@
         <v>370</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -5872,13 +5986,13 @@
         <v>39568</v>
       </c>
       <c r="Y50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z50" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
@@ -5889,10 +6003,10 @@
         <v>371</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -5919,13 +6033,13 @@
         <v>39568</v>
       </c>
       <c r="Y51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z51" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -5936,10 +6050,10 @@
         <v>372</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -5966,13 +6080,13 @@
         <v>39568</v>
       </c>
       <c r="Y52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z52" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
@@ -5983,10 +6097,10 @@
         <v>373</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -6013,13 +6127,13 @@
         <v>39568</v>
       </c>
       <c r="Y53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z53" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
@@ -6030,10 +6144,10 @@
         <v>374</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -6060,13 +6174,13 @@
         <v>39568</v>
       </c>
       <c r="Y54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z54" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
@@ -6077,10 +6191,10 @@
         <v>375</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -6107,13 +6221,13 @@
         <v>39568</v>
       </c>
       <c r="Y55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z55" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
@@ -6124,10 +6238,10 @@
         <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -6154,13 +6268,13 @@
         <v>39568</v>
       </c>
       <c r="Y56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z56" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
@@ -6171,10 +6285,10 @@
         <v>377</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -6201,13 +6315,13 @@
         <v>39568</v>
       </c>
       <c r="Y57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z57" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
@@ -6218,10 +6332,10 @@
         <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -6248,13 +6362,13 @@
         <v>39568</v>
       </c>
       <c r="Y58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z58" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
@@ -6265,10 +6379,10 @@
         <v>379</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -6295,13 +6409,13 @@
         <v>39568</v>
       </c>
       <c r="Y59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z59" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
@@ -6312,10 +6426,10 @@
         <v>380</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -6342,13 +6456,13 @@
         <v>39568</v>
       </c>
       <c r="Y60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z60" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
@@ -6359,10 +6473,10 @@
         <v>381</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -6389,13 +6503,13 @@
         <v>39568</v>
       </c>
       <c r="Y61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z61" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
@@ -6406,10 +6520,10 @@
         <v>382</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -6436,13 +6550,13 @@
         <v>39568</v>
       </c>
       <c r="Y62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z62" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
@@ -6453,10 +6567,10 @@
         <v>383</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -6483,13 +6597,13 @@
         <v>39568</v>
       </c>
       <c r="Y63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z63" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
@@ -6500,10 +6614,10 @@
         <v>384</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -6530,13 +6644,13 @@
         <v>39568</v>
       </c>
       <c r="Y64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z64" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
@@ -6547,10 +6661,10 @@
         <v>385</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -6577,13 +6691,13 @@
         <v>39568</v>
       </c>
       <c r="Y65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z65" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
@@ -6594,10 +6708,10 @@
         <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -6624,13 +6738,13 @@
         <v>39568</v>
       </c>
       <c r="Y66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z66" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
@@ -6641,10 +6755,10 @@
         <v>387</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -6671,13 +6785,13 @@
         <v>39568</v>
       </c>
       <c r="Y67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z67" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
@@ -6688,10 +6802,10 @@
         <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -6718,13 +6832,13 @@
         <v>39568</v>
       </c>
       <c r="Y68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z68" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
@@ -6735,10 +6849,10 @@
         <v>389</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -6765,13 +6879,13 @@
         <v>39568</v>
       </c>
       <c r="Y69" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z69" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -6782,10 +6896,10 @@
         <v>390</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -6812,13 +6926,13 @@
         <v>39568</v>
       </c>
       <c r="Y70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z70" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
@@ -6829,10 +6943,10 @@
         <v>391</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -6859,13 +6973,13 @@
         <v>39568</v>
       </c>
       <c r="Y71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z71" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
@@ -6876,10 +6990,10 @@
         <v>392</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -6906,13 +7020,13 @@
         <v>39568</v>
       </c>
       <c r="Y72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z72" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
@@ -6923,10 +7037,10 @@
         <v>393</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -6953,13 +7067,13 @@
         <v>39568</v>
       </c>
       <c r="Y73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z73" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
@@ -6970,10 +7084,10 @@
         <v>394</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -7000,13 +7114,13 @@
         <v>39568</v>
       </c>
       <c r="Y74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z74" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
@@ -7017,10 +7131,10 @@
         <v>395</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -7047,13 +7161,13 @@
         <v>39568</v>
       </c>
       <c r="Y75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z75" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
@@ -7064,10 +7178,10 @@
         <v>396</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -7094,13 +7208,13 @@
         <v>39568</v>
       </c>
       <c r="Y76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z76" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
@@ -7111,10 +7225,10 @@
         <v>397</v>
       </c>
       <c r="C77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
@@ -7141,13 +7255,13 @@
         <v>39568</v>
       </c>
       <c r="Y77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z77" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
@@ -7158,10 +7272,10 @@
         <v>398</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -7188,13 +7302,13 @@
         <v>39568</v>
       </c>
       <c r="Y78" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z78" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
@@ -7205,10 +7319,10 @@
         <v>399</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -7235,13 +7349,13 @@
         <v>39568</v>
       </c>
       <c r="Y79" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z79" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
@@ -7252,10 +7366,10 @@
         <v>400</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -7279,19 +7393,19 @@
         <v>1</v>
       </c>
       <c r="R80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V80" s="2">
         <v>39568</v>
       </c>
       <c r="Y80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z80" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
@@ -7302,10 +7416,10 @@
         <v>401</v>
       </c>
       <c r="C81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -7332,13 +7446,13 @@
         <v>39568</v>
       </c>
       <c r="Y81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z81" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
@@ -7349,10 +7463,10 @@
         <v>402</v>
       </c>
       <c r="C82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -7379,13 +7493,13 @@
         <v>39568</v>
       </c>
       <c r="Y82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z82" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
@@ -7396,10 +7510,10 @@
         <v>403</v>
       </c>
       <c r="C83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -7426,13 +7540,13 @@
         <v>39568</v>
       </c>
       <c r="Y83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z83" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
@@ -7443,10 +7557,10 @@
         <v>404</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -7473,13 +7587,13 @@
         <v>39568</v>
       </c>
       <c r="Y84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z84" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
@@ -7490,10 +7604,10 @@
         <v>405</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -7520,13 +7634,13 @@
         <v>39568</v>
       </c>
       <c r="Y85" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z85" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
@@ -7537,10 +7651,10 @@
         <v>406</v>
       </c>
       <c r="C86" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -7567,13 +7681,13 @@
         <v>39568</v>
       </c>
       <c r="Y86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z86" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
@@ -7584,10 +7698,10 @@
         <v>407</v>
       </c>
       <c r="C87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -7614,13 +7728,13 @@
         <v>39568</v>
       </c>
       <c r="Y87" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z87" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
@@ -7631,10 +7745,10 @@
         <v>408</v>
       </c>
       <c r="C88" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -7661,13 +7775,13 @@
         <v>39568</v>
       </c>
       <c r="Y88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z88" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
@@ -7678,10 +7792,10 @@
         <v>409</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D89" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -7708,13 +7822,13 @@
         <v>39568</v>
       </c>
       <c r="Y89" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z89" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
@@ -7725,10 +7839,10 @@
         <v>410</v>
       </c>
       <c r="C90" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -7755,13 +7869,13 @@
         <v>39568</v>
       </c>
       <c r="Y90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z90" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
@@ -7772,10 +7886,10 @@
         <v>411</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -7802,13 +7916,13 @@
         <v>39568</v>
       </c>
       <c r="Y91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z91" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
@@ -7819,10 +7933,10 @@
         <v>412</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D92" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -7849,13 +7963,13 @@
         <v>39568</v>
       </c>
       <c r="Y92" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z92" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
@@ -7866,10 +7980,10 @@
         <v>413</v>
       </c>
       <c r="C93" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -7896,13 +8010,13 @@
         <v>39568</v>
       </c>
       <c r="Y93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z93" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
@@ -7913,10 +8027,10 @@
         <v>414</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -7943,13 +8057,13 @@
         <v>39568</v>
       </c>
       <c r="Y94" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z94" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
@@ -7960,10 +8074,10 @@
         <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -7990,13 +8104,13 @@
         <v>39568</v>
       </c>
       <c r="Y95" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z95" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
@@ -8007,10 +8121,10 @@
         <v>416</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -8037,13 +8151,13 @@
         <v>39568</v>
       </c>
       <c r="Y96" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z96" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
@@ -8054,10 +8168,10 @@
         <v>417</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -8084,13 +8198,13 @@
         <v>39568</v>
       </c>
       <c r="Y97" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z97" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
@@ -8101,10 +8215,10 @@
         <v>418</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D98" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -8131,13 +8245,13 @@
         <v>39568</v>
       </c>
       <c r="Y98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z98" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
@@ -8148,10 +8262,10 @@
         <v>419</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D99" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -8178,13 +8292,13 @@
         <v>39568</v>
       </c>
       <c r="Y99" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z99" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
@@ -8195,10 +8309,10 @@
         <v>420</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -8225,13 +8339,13 @@
         <v>39568</v>
       </c>
       <c r="Y100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z100" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
@@ -8242,10 +8356,10 @@
         <v>421</v>
       </c>
       <c r="C101" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D101" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -8272,13 +8386,13 @@
         <v>39568</v>
       </c>
       <c r="Y101" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z101" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
@@ -8289,10 +8403,10 @@
         <v>422</v>
       </c>
       <c r="C102" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
@@ -8319,13 +8433,13 @@
         <v>39568</v>
       </c>
       <c r="Y102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z102" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
@@ -8336,10 +8450,10 @@
         <v>423</v>
       </c>
       <c r="C103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
@@ -8366,13 +8480,13 @@
         <v>39568</v>
       </c>
       <c r="Y103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z103" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
@@ -8383,10 +8497,10 @@
         <v>424</v>
       </c>
       <c r="C104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
@@ -8413,13 +8527,13 @@
         <v>39568</v>
       </c>
       <c r="Y104" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z104" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
@@ -8430,10 +8544,10 @@
         <v>425</v>
       </c>
       <c r="C105" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D105" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
@@ -8460,13 +8574,13 @@
         <v>39568</v>
       </c>
       <c r="Y105" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z105" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
@@ -8477,10 +8591,10 @@
         <v>426</v>
       </c>
       <c r="C106" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D106" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
@@ -8507,13 +8621,13 @@
         <v>39568</v>
       </c>
       <c r="Y106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z106" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
@@ -8524,10 +8638,10 @@
         <v>427</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D107" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -8554,13 +8668,13 @@
         <v>39568</v>
       </c>
       <c r="Y107" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z107" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
@@ -8571,10 +8685,10 @@
         <v>428</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D108" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
@@ -8601,13 +8715,13 @@
         <v>39568</v>
       </c>
       <c r="Y108" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z108" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
@@ -8618,10 +8732,10 @@
         <v>429</v>
       </c>
       <c r="C109" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D109" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -8648,13 +8762,13 @@
         <v>39568</v>
       </c>
       <c r="Y109" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z109" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
@@ -8665,10 +8779,10 @@
         <v>430</v>
       </c>
       <c r="C110" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D110" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
@@ -8695,13 +8809,13 @@
         <v>39568</v>
       </c>
       <c r="Y110" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z110" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
@@ -8712,10 +8826,10 @@
         <v>431</v>
       </c>
       <c r="C111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D111" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
@@ -8742,13 +8856,13 @@
         <v>39568</v>
       </c>
       <c r="Y111" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z111" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
@@ -8759,10 +8873,10 @@
         <v>432</v>
       </c>
       <c r="C112" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D112" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
@@ -8789,13 +8903,13 @@
         <v>39568</v>
       </c>
       <c r="Y112" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z112" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
@@ -8806,10 +8920,10 @@
         <v>433</v>
       </c>
       <c r="C113" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
@@ -8836,13 +8950,13 @@
         <v>39568</v>
       </c>
       <c r="Y113" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z113" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
@@ -8853,10 +8967,10 @@
         <v>434</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D114" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
@@ -8883,13 +8997,13 @@
         <v>39568</v>
       </c>
       <c r="Y114" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z114" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
@@ -8900,10 +9014,10 @@
         <v>435</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D115" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
@@ -8930,13 +9044,13 @@
         <v>39568</v>
       </c>
       <c r="Y115" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z115" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
@@ -8947,10 +9061,10 @@
         <v>436</v>
       </c>
       <c r="C116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D116" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
@@ -8977,13 +9091,13 @@
         <v>39568</v>
       </c>
       <c r="Y116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z116" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
@@ -8994,10 +9108,10 @@
         <v>437</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
@@ -9024,13 +9138,13 @@
         <v>39568</v>
       </c>
       <c r="Y117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z117" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
@@ -9041,10 +9155,10 @@
         <v>438</v>
       </c>
       <c r="C118" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D118" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
@@ -9071,13 +9185,13 @@
         <v>39568</v>
       </c>
       <c r="Y118" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z118" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
@@ -9088,10 +9202,10 @@
         <v>439</v>
       </c>
       <c r="C119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
@@ -9118,13 +9232,13 @@
         <v>39568</v>
       </c>
       <c r="Y119" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z119" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
@@ -9135,10 +9249,10 @@
         <v>440</v>
       </c>
       <c r="C120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
@@ -9165,13 +9279,13 @@
         <v>39568</v>
       </c>
       <c r="Y120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z120" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
@@ -9182,10 +9296,10 @@
         <v>441</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D121" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
@@ -9212,13 +9326,13 @@
         <v>39568</v>
       </c>
       <c r="Y121" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z121" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
@@ -9229,10 +9343,10 @@
         <v>442</v>
       </c>
       <c r="C122" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D122" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
@@ -9259,13 +9373,13 @@
         <v>39568</v>
       </c>
       <c r="Y122" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z122" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
@@ -9276,10 +9390,10 @@
         <v>443</v>
       </c>
       <c r="C123" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D123" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
@@ -9306,13 +9420,13 @@
         <v>39568</v>
       </c>
       <c r="Y123" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z123" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
@@ -9323,10 +9437,10 @@
         <v>444</v>
       </c>
       <c r="C124" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -9353,13 +9467,13 @@
         <v>39568</v>
       </c>
       <c r="Y124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z124" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
@@ -9370,10 +9484,10 @@
         <v>445</v>
       </c>
       <c r="C125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D125" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
@@ -9400,13 +9514,13 @@
         <v>39568</v>
       </c>
       <c r="Y125" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z125" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
@@ -9417,10 +9531,10 @@
         <v>446</v>
       </c>
       <c r="C126" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
@@ -9447,13 +9561,13 @@
         <v>39568</v>
       </c>
       <c r="Y126" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z126" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
@@ -9464,10 +9578,10 @@
         <v>447</v>
       </c>
       <c r="C127" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D127" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
@@ -9494,13 +9608,13 @@
         <v>39568</v>
       </c>
       <c r="Y127" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z127" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
@@ -9511,10 +9625,10 @@
         <v>448</v>
       </c>
       <c r="C128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D128" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
@@ -9541,13 +9655,13 @@
         <v>39568</v>
       </c>
       <c r="Y128" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z128" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
@@ -9558,10 +9672,10 @@
         <v>449</v>
       </c>
       <c r="C129" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D129" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
@@ -9588,13 +9702,13 @@
         <v>39568</v>
       </c>
       <c r="Y129" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z129" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
@@ -9605,10 +9719,10 @@
         <v>450</v>
       </c>
       <c r="C130" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D130" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
@@ -9635,13 +9749,13 @@
         <v>39568</v>
       </c>
       <c r="Y130" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z130" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
@@ -9652,10 +9766,10 @@
         <v>451</v>
       </c>
       <c r="C131" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D131" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
@@ -9682,13 +9796,13 @@
         <v>39568</v>
       </c>
       <c r="Y131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z131" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
@@ -9699,10 +9813,10 @@
         <v>452</v>
       </c>
       <c r="C132" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D132" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
@@ -9729,13 +9843,13 @@
         <v>39568</v>
       </c>
       <c r="Y132" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z132" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
@@ -9746,10 +9860,10 @@
         <v>453</v>
       </c>
       <c r="C133" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
@@ -9776,13 +9890,13 @@
         <v>39568</v>
       </c>
       <c r="Y133" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z133" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
@@ -9793,10 +9907,10 @@
         <v>454</v>
       </c>
       <c r="C134" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
@@ -9823,13 +9937,13 @@
         <v>39568</v>
       </c>
       <c r="Y134" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z134" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
@@ -9840,10 +9954,10 @@
         <v>455</v>
       </c>
       <c r="C135" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D135" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
@@ -9870,13 +9984,13 @@
         <v>39568</v>
       </c>
       <c r="Y135" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z135" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
@@ -9887,10 +10001,10 @@
         <v>456</v>
       </c>
       <c r="C136" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D136" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
@@ -9917,13 +10031,13 @@
         <v>39568</v>
       </c>
       <c r="Y136" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z136" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
@@ -9934,10 +10048,10 @@
         <v>457</v>
       </c>
       <c r="C137" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D137" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -9964,13 +10078,13 @@
         <v>39568</v>
       </c>
       <c r="Y137" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z137" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
@@ -9981,10 +10095,10 @@
         <v>458</v>
       </c>
       <c r="C138" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D138" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
@@ -10011,13 +10125,13 @@
         <v>39568</v>
       </c>
       <c r="Y138" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z138" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
@@ -10028,10 +10142,10 @@
         <v>459</v>
       </c>
       <c r="C139" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D139" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
@@ -10058,13 +10172,13 @@
         <v>39568</v>
       </c>
       <c r="Y139" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z139" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
@@ -10075,10 +10189,10 @@
         <v>460</v>
       </c>
       <c r="C140" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D140" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
@@ -10105,13 +10219,13 @@
         <v>39568</v>
       </c>
       <c r="Y140" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z140" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
@@ -10122,10 +10236,10 @@
         <v>461</v>
       </c>
       <c r="C141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D141" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
@@ -10134,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H141">
         <v>1000</v>
@@ -10155,13 +10269,13 @@
         <v>39568</v>
       </c>
       <c r="Y141" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z141" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
@@ -10172,10 +10286,10 @@
         <v>462</v>
       </c>
       <c r="C142" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D142" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
@@ -10202,13 +10316,13 @@
         <v>39568</v>
       </c>
       <c r="Y142" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z142" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
@@ -10219,10 +10333,10 @@
         <v>463</v>
       </c>
       <c r="C143" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D143" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
@@ -10249,13 +10363,13 @@
         <v>39568</v>
       </c>
       <c r="Y143" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z143" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
@@ -10266,10 +10380,10 @@
         <v>464</v>
       </c>
       <c r="C144" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D144" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
@@ -10296,13 +10410,13 @@
         <v>39568</v>
       </c>
       <c r="Y144" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z144" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
@@ -10313,10 +10427,10 @@
         <v>465</v>
       </c>
       <c r="C145" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
@@ -10343,13 +10457,13 @@
         <v>39568</v>
       </c>
       <c r="Y145" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z145" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.25">
@@ -10360,10 +10474,10 @@
         <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
@@ -10390,13 +10504,13 @@
         <v>39568</v>
       </c>
       <c r="Y146" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z146" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.25">
@@ -10407,10 +10521,10 @@
         <v>467</v>
       </c>
       <c r="C147" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D147" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
@@ -10437,13 +10551,13 @@
         <v>39568</v>
       </c>
       <c r="Y147" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z147" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
@@ -10454,10 +10568,10 @@
         <v>468</v>
       </c>
       <c r="C148" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D148" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
@@ -10484,13 +10598,13 @@
         <v>39568</v>
       </c>
       <c r="Y148" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z148" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
@@ -10501,10 +10615,10 @@
         <v>469</v>
       </c>
       <c r="C149" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D149" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
@@ -10531,13 +10645,13 @@
         <v>39568</v>
       </c>
       <c r="Y149" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z149" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
@@ -10548,10 +10662,10 @@
         <v>470</v>
       </c>
       <c r="C150" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D150" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
@@ -10578,13 +10692,13 @@
         <v>39568</v>
       </c>
       <c r="Y150" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z150" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.25">
@@ -10595,10 +10709,10 @@
         <v>471</v>
       </c>
       <c r="C151" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D151" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
@@ -10625,13 +10739,13 @@
         <v>39568</v>
       </c>
       <c r="Y151" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z151" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
@@ -10642,10 +10756,10 @@
         <v>472</v>
       </c>
       <c r="C152" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D152" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
@@ -10672,13 +10786,13 @@
         <v>39568</v>
       </c>
       <c r="Y152" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z152" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
@@ -10689,10 +10803,10 @@
         <v>473</v>
       </c>
       <c r="C153" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
@@ -10719,13 +10833,13 @@
         <v>39568</v>
       </c>
       <c r="Y153" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z153" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
@@ -10736,10 +10850,10 @@
         <v>474</v>
       </c>
       <c r="C154" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D154" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
@@ -10766,13 +10880,13 @@
         <v>39568</v>
       </c>
       <c r="Y154" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z154" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
@@ -10783,10 +10897,10 @@
         <v>475</v>
       </c>
       <c r="C155" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D155" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
@@ -10813,13 +10927,13 @@
         <v>39568</v>
       </c>
       <c r="Y155" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z155" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
@@ -10830,10 +10944,10 @@
         <v>476</v>
       </c>
       <c r="C156" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D156" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
@@ -10860,13 +10974,13 @@
         <v>39568</v>
       </c>
       <c r="Y156" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z156" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
@@ -10877,10 +10991,10 @@
         <v>477</v>
       </c>
       <c r="C157" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D157" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
@@ -10907,13 +11021,13 @@
         <v>39568</v>
       </c>
       <c r="Y157" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z157" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
@@ -10924,10 +11038,10 @@
         <v>478</v>
       </c>
       <c r="C158" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D158" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
@@ -10954,13 +11068,13 @@
         <v>39568</v>
       </c>
       <c r="Y158" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z158" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
@@ -10971,10 +11085,10 @@
         <v>479</v>
       </c>
       <c r="C159" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D159" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
@@ -11001,13 +11115,13 @@
         <v>39568</v>
       </c>
       <c r="Y159" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z159" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
@@ -11018,10 +11132,10 @@
         <v>480</v>
       </c>
       <c r="C160" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D160" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
@@ -11048,13 +11162,13 @@
         <v>39568</v>
       </c>
       <c r="Y160" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z160" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
@@ -11065,10 +11179,10 @@
         <v>481</v>
       </c>
       <c r="C161" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D161" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
@@ -11095,13 +11209,13 @@
         <v>39568</v>
       </c>
       <c r="Y161" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z161" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
@@ -11112,10 +11226,10 @@
         <v>482</v>
       </c>
       <c r="C162" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D162" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
@@ -11142,13 +11256,13 @@
         <v>39568</v>
       </c>
       <c r="Y162" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z162" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
@@ -11159,10 +11273,10 @@
         <v>483</v>
       </c>
       <c r="C163" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D163" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
@@ -11189,13 +11303,13 @@
         <v>39568</v>
       </c>
       <c r="Y163" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z163" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
@@ -11206,10 +11320,10 @@
         <v>484</v>
       </c>
       <c r="C164" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D164" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
@@ -11236,13 +11350,13 @@
         <v>39568</v>
       </c>
       <c r="Y164" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z164" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.25">
@@ -11253,10 +11367,10 @@
         <v>485</v>
       </c>
       <c r="C165" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D165" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
@@ -11283,13 +11397,13 @@
         <v>39568</v>
       </c>
       <c r="Y165" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z165" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.25">
@@ -11300,10 +11414,10 @@
         <v>486</v>
       </c>
       <c r="C166" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D166" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
@@ -11330,13 +11444,13 @@
         <v>39568</v>
       </c>
       <c r="Y166" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z166" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.25">
@@ -11347,10 +11461,10 @@
         <v>487</v>
       </c>
       <c r="C167" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D167" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
@@ -11377,13 +11491,13 @@
         <v>39568</v>
       </c>
       <c r="Y167" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z167" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.25">
@@ -11394,10 +11508,10 @@
         <v>488</v>
       </c>
       <c r="C168" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D168" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
@@ -11424,13 +11538,13 @@
         <v>39568</v>
       </c>
       <c r="Y168" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z168" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.25">
@@ -11441,10 +11555,10 @@
         <v>489</v>
       </c>
       <c r="C169" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D169" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
@@ -11471,13 +11585,13 @@
         <v>39568</v>
       </c>
       <c r="Y169" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z169" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.25">
@@ -11488,10 +11602,10 @@
         <v>490</v>
       </c>
       <c r="C170" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D170" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
@@ -11515,19 +11629,19 @@
         <v>0</v>
       </c>
       <c r="R170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V170" s="2">
         <v>39568</v>
       </c>
       <c r="Y170" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z170" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.25">
@@ -11538,10 +11652,10 @@
         <v>491</v>
       </c>
       <c r="C171" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D171" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
@@ -11568,13 +11682,13 @@
         <v>39568</v>
       </c>
       <c r="Y171" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z171" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.25">
@@ -11585,10 +11699,10 @@
         <v>492</v>
       </c>
       <c r="C172" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D172" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
@@ -11615,13 +11729,13 @@
         <v>39568</v>
       </c>
       <c r="Y172" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z172" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
@@ -11632,10 +11746,10 @@
         <v>493</v>
       </c>
       <c r="C173" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D173" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
@@ -11662,13 +11776,13 @@
         <v>39568</v>
       </c>
       <c r="Y173" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Z173" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
@@ -11679,10 +11793,10 @@
         <v>494</v>
       </c>
       <c r="C174" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D174" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
@@ -11709,13 +11823,13 @@
         <v>39568</v>
       </c>
       <c r="Y174" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Z174" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
@@ -11726,10 +11840,10 @@
         <v>495</v>
       </c>
       <c r="C175" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D175" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
@@ -11756,13 +11870,13 @@
         <v>39568</v>
       </c>
       <c r="Y175" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Z175" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
@@ -11773,10 +11887,10 @@
         <v>496</v>
       </c>
       <c r="C176" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D176" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
@@ -11803,13 +11917,13 @@
         <v>39568</v>
       </c>
       <c r="Y176" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z176" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
@@ -11820,10 +11934,10 @@
         <v>497</v>
       </c>
       <c r="C177" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D177" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
@@ -11850,13 +11964,13 @@
         <v>39568</v>
       </c>
       <c r="Y177" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z177" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
@@ -11867,10 +11981,10 @@
         <v>504</v>
       </c>
       <c r="C178" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D178" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
@@ -11897,13 +12011,13 @@
         <v>39568</v>
       </c>
       <c r="Y178" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z178" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
@@ -11914,10 +12028,10 @@
         <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D179" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
@@ -11944,13 +12058,13 @@
         <v>39568</v>
       </c>
       <c r="Y179" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z179" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
@@ -11961,10 +12075,10 @@
         <v>506</v>
       </c>
       <c r="C180" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D180" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
@@ -11991,13 +12105,13 @@
         <v>39568</v>
       </c>
       <c r="Y180" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z180" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
@@ -12008,10 +12122,10 @@
         <v>507</v>
       </c>
       <c r="C181" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D181" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
@@ -12032,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O181">
         <v>435</v>
@@ -12041,19 +12155,19 @@
         <v>0</v>
       </c>
       <c r="R181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V181" s="2">
         <v>39568</v>
       </c>
       <c r="Y181" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Z181" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
@@ -12064,10 +12178,10 @@
         <v>508</v>
       </c>
       <c r="C182" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D182" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
@@ -12088,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O182">
         <v>450</v>
@@ -12097,19 +12211,19 @@
         <v>0</v>
       </c>
       <c r="R182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V182" s="2">
         <v>39568</v>
       </c>
       <c r="Y182" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Z182" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
@@ -12120,10 +12234,10 @@
         <v>509</v>
       </c>
       <c r="C183" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D183" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
@@ -12144,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O183">
         <v>400</v>
@@ -12156,13 +12270,13 @@
         <v>39568</v>
       </c>
       <c r="Y183" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z183" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
@@ -12173,10 +12287,10 @@
         <v>510</v>
       </c>
       <c r="C184" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D184" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
@@ -12197,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O184">
         <v>445</v>
@@ -12206,19 +12320,19 @@
         <v>0</v>
       </c>
       <c r="R184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V184" s="2">
         <v>39568</v>
       </c>
       <c r="Y184" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z184" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.25">
@@ -12229,10 +12343,10 @@
         <v>511</v>
       </c>
       <c r="C185" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D185" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
@@ -12253,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O185">
         <v>450</v>
@@ -12262,19 +12376,19 @@
         <v>0</v>
       </c>
       <c r="R185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V185" s="2">
         <v>39568</v>
       </c>
       <c r="Y185" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z185" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.25">
@@ -12285,10 +12399,10 @@
         <v>512</v>
       </c>
       <c r="C186" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D186" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
@@ -12309,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="N186" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O186">
         <v>400</v>
@@ -12321,13 +12435,13 @@
         <v>39568</v>
       </c>
       <c r="Y186" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Z186" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.25">
@@ -12338,10 +12452,10 @@
         <v>513</v>
       </c>
       <c r="C187" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D187" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
@@ -12362,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O187">
         <v>460</v>
@@ -12374,13 +12488,13 @@
         <v>39568</v>
       </c>
       <c r="Y187" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Z187" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.25">
@@ -12391,10 +12505,10 @@
         <v>514</v>
       </c>
       <c r="C188" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D188" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
@@ -12418,19 +12532,19 @@
         <v>1</v>
       </c>
       <c r="R188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V188" s="2">
         <v>39568</v>
       </c>
       <c r="Y188" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z188" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.25">
@@ -12441,10 +12555,10 @@
         <v>515</v>
       </c>
       <c r="C189" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D189" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -12468,19 +12582,19 @@
         <v>1</v>
       </c>
       <c r="R189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V189" s="2">
         <v>39568</v>
       </c>
       <c r="Y189" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z189" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
@@ -12491,10 +12605,10 @@
         <v>516</v>
       </c>
       <c r="C190" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D190" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E190" t="b">
         <v>1</v>
@@ -12521,13 +12635,13 @@
         <v>39568</v>
       </c>
       <c r="Y190" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z190" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.25">
@@ -12538,10 +12652,10 @@
         <v>517</v>
       </c>
       <c r="C191" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D191" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -12565,19 +12679,19 @@
         <v>1</v>
       </c>
       <c r="R191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V191" s="2">
         <v>39568</v>
       </c>
       <c r="Y191" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z191" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.25">
@@ -12588,10 +12702,10 @@
         <v>518</v>
       </c>
       <c r="C192" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D192" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E192" t="b">
         <v>1</v>
@@ -12615,19 +12729,19 @@
         <v>1</v>
       </c>
       <c r="R192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V192" s="2">
         <v>39568</v>
       </c>
       <c r="Y192" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z192" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA192" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
@@ -12638,10 +12752,10 @@
         <v>519</v>
       </c>
       <c r="C193" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D193" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -12668,13 +12782,13 @@
         <v>39568</v>
       </c>
       <c r="Y193" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z193" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.25">
@@ -12685,10 +12799,10 @@
         <v>520</v>
       </c>
       <c r="C194" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D194" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E194" t="b">
         <v>1</v>
@@ -12712,19 +12826,19 @@
         <v>1</v>
       </c>
       <c r="R194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V194" s="2">
         <v>39568</v>
       </c>
       <c r="Y194" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z194" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
@@ -12735,10 +12849,10 @@
         <v>521</v>
       </c>
       <c r="C195" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D195" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E195" t="b">
         <v>1</v>
@@ -12762,19 +12876,19 @@
         <v>1</v>
       </c>
       <c r="R195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V195" s="2">
         <v>39568</v>
       </c>
       <c r="Y195" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z195" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
@@ -12785,10 +12899,10 @@
         <v>522</v>
       </c>
       <c r="C196" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D196" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -12815,13 +12929,13 @@
         <v>39568</v>
       </c>
       <c r="Y196" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z196" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
@@ -12832,10 +12946,10 @@
         <v>523</v>
       </c>
       <c r="C197" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D197" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
@@ -12859,19 +12973,19 @@
         <v>0</v>
       </c>
       <c r="R197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V197" s="2">
         <v>39568</v>
       </c>
       <c r="Y197" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Z197" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
@@ -12882,10 +12996,10 @@
         <v>524</v>
       </c>
       <c r="C198" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D198" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
@@ -12912,13 +13026,13 @@
         <v>39568</v>
       </c>
       <c r="Y198" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Z198" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
@@ -12929,10 +13043,10 @@
         <v>525</v>
       </c>
       <c r="C199" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D199" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -12956,19 +13070,19 @@
         <v>0</v>
       </c>
       <c r="R199" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V199" s="2">
         <v>39568</v>
       </c>
       <c r="Y199" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z199" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
@@ -12979,10 +13093,10 @@
         <v>526</v>
       </c>
       <c r="C200" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D200" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
@@ -13009,13 +13123,13 @@
         <v>39568</v>
       </c>
       <c r="Y200" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z200" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
@@ -13026,10 +13140,10 @@
         <v>527</v>
       </c>
       <c r="C201" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D201" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
@@ -13056,13 +13170,13 @@
         <v>39568</v>
       </c>
       <c r="Y201" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z201" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.25">
@@ -13073,10 +13187,10 @@
         <v>528</v>
       </c>
       <c r="C202" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D202" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E202" t="b">
         <v>0</v>
@@ -13103,13 +13217,13 @@
         <v>39568</v>
       </c>
       <c r="Y202" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z202" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.25">
@@ -13120,10 +13234,10 @@
         <v>529</v>
       </c>
       <c r="C203" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D203" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
@@ -13150,13 +13264,13 @@
         <v>39568</v>
       </c>
       <c r="Y203" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Z203" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.25">
@@ -13167,10 +13281,10 @@
         <v>530</v>
       </c>
       <c r="C204" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D204" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E204" t="b">
         <v>0</v>
@@ -13197,13 +13311,13 @@
         <v>39568</v>
       </c>
       <c r="Y204" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Z204" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.25">
@@ -13214,10 +13328,10 @@
         <v>531</v>
       </c>
       <c r="C205" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D205" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -13244,13 +13358,13 @@
         <v>39568</v>
       </c>
       <c r="Y205" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z205" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.25">
@@ -13261,10 +13375,10 @@
         <v>532</v>
       </c>
       <c r="C206" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D206" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -13291,13 +13405,13 @@
         <v>39568</v>
       </c>
       <c r="Y206" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z206" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.25">
@@ -13308,10 +13422,10 @@
         <v>533</v>
       </c>
       <c r="C207" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D207" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
@@ -13338,13 +13452,13 @@
         <v>39568</v>
       </c>
       <c r="Y207" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z207" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.25">
@@ -13355,10 +13469,10 @@
         <v>534</v>
       </c>
       <c r="C208" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D208" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E208" t="b">
         <v>1</v>
@@ -13385,13 +13499,13 @@
         <v>39568</v>
       </c>
       <c r="Y208" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Z208" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.25">
@@ -13402,10 +13516,10 @@
         <v>535</v>
       </c>
       <c r="C209" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D209" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E209" t="b">
         <v>0</v>
@@ -13432,13 +13546,13 @@
         <v>39568</v>
       </c>
       <c r="Y209" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Z209" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.25">
@@ -13449,10 +13563,10 @@
         <v>679</v>
       </c>
       <c r="C210" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D210" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E210" t="b">
         <v>0</v>
@@ -13461,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H210">
         <v>500</v>
@@ -13482,13 +13596,13 @@
         <v>39568</v>
       </c>
       <c r="Y210" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z210" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.25">
@@ -13499,10 +13613,10 @@
         <v>680</v>
       </c>
       <c r="C211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -13511,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H211">
         <v>500</v>
@@ -13526,13 +13640,13 @@
         <v>1431.5</v>
       </c>
       <c r="L211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O211">
         <v>2.2400000000000002</v>
@@ -13541,13 +13655,13 @@
         <v>1</v>
       </c>
       <c r="Q211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T211">
         <v>14</v>
@@ -13559,13 +13673,13 @@
         <v>39568</v>
       </c>
       <c r="Y211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z211" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.25">
@@ -13576,10 +13690,10 @@
         <v>706</v>
       </c>
       <c r="C212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D212" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -13588,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H212">
         <v>500</v>
@@ -13603,13 +13717,13 @@
         <v>1431.5</v>
       </c>
       <c r="L212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O212">
         <v>2.2400000000000002</v>
@@ -13618,13 +13732,13 @@
         <v>1</v>
       </c>
       <c r="Q212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T212">
         <v>14</v>
@@ -13636,13 +13750,18 @@
         <v>39568</v>
       </c>
       <c r="Y212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z212" s="2">
         <v>41678.417787349543</v>
       </c>
       <c r="AA212" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A216" s="4" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
